--- a/Application/functionalities/advanceyii3/backend/web/uploads/January2016Flash.xlsx
+++ b/Application/functionalities/advanceyii3/backend/web/uploads/January2016Flash.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\advanceyii2\backend\web\uploads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\advanceyii3\backend\web\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" calcMode="autoNoTable"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -272,7 +272,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -590,64 +590,68 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BD2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="5.7109375" customWidth="1"/>
-    <col min="28" max="28" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="5.85546875" customWidth="1"/>
-    <col min="36" max="36" width="14" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="18" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="14" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="7.5703125" customWidth="1"/>
-    <col min="45" max="45" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="16" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="8.42578125" customWidth="1"/>
-    <col min="54" max="54" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="14" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="18" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="14" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="16" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:56" x14ac:dyDescent="0.25">
@@ -820,21 +824,21 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="B2">
-        <v>354</v>
+    <row r="2" spans="1:56" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="2">
+        <v>354000</v>
       </c>
       <c r="C2" s="2">
         <v>8091</v>
       </c>
       <c r="D2" s="2">
-        <v>27838</v>
+        <v>27838000</v>
       </c>
       <c r="E2" s="2">
-        <v>2957</v>
-      </c>
-      <c r="F2">
-        <v>423</v>
+        <v>2957000</v>
+      </c>
+      <c r="F2" s="2">
+        <v>423000</v>
       </c>
       <c r="G2" s="2">
         <v>8060</v>
@@ -843,13 +847,13 @@
         <v>5739</v>
       </c>
       <c r="I2" s="2">
-        <v>16329</v>
+        <v>16329000</v>
       </c>
       <c r="J2" s="2">
-        <v>7314</v>
-      </c>
-      <c r="K2">
-        <v>154</v>
+        <v>7314000</v>
+      </c>
+      <c r="K2" s="2">
+        <v>154000</v>
       </c>
       <c r="L2" s="2">
         <v>8091</v>
@@ -858,13 +862,13 @@
         <v>5295</v>
       </c>
       <c r="N2" s="2">
-        <v>16430</v>
+        <v>16430000</v>
       </c>
       <c r="O2" s="2">
-        <v>4659</v>
-      </c>
-      <c r="P2">
-        <v>180</v>
+        <v>4659000</v>
+      </c>
+      <c r="P2" s="2">
+        <v>180000</v>
       </c>
       <c r="Q2" s="2">
         <v>8091</v>
